--- a/docs/assets/disciplinas/LOQ4055.xlsx
+++ b/docs/assets/disciplinas/LOQ4055.xlsx
@@ -136,7 +136,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4097 -  Fundamentos de Química para Engenharia I (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOQ4055.xlsx
+++ b/docs/assets/disciplinas/LOQ4055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,13 +70,15 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>1) Capacitar o aluno a escrever equações balanceadas mostrando os produtos esperados para as reações mais comuns dos elementos da tabela periódica e seus compostos.
-2) Capacitar o aluno para relacionar as propriedades químicas e físicas dos elementos e seus compostos com suas posições na tabela periódica.</t>
+    <t>Fornecer aos alunos conceitos fundamentais para compreensão da Química Inorgânica por meio da experimentação, desenvolvendo a capacidade de realizarem práticas no laboratório que estimulem o seu pensamento científico. Descrever e interpretar as propriedades dos elementos e de seus compostos, principalmente daqueles de caráter inorgânico com interesse industrial.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the students with fundamental concepts for understanding Inorganic Chemistry by means of experimentation, developing the ability to carry out practices in the laboratory which stimulate their scientific thinking. Describe and interpret the properties of the elements and their compounds, especially those of an inorganic feature with industrial interest.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -86,51 +88,52 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Propriedades gerais dos elementos (2h aula)
-2) Hidrogênio (2h aula)
-3) Elementos do bloco s (6h aula)
-4) Elementos do bloco p (4h aula)
-5) Elementos do bloco d (6h aula)
-6) Elementos do bloco f (4h aula)
-7) Compostos de coordenação e sais duplos (6h aula).</t>
+    <t>Compostos de Coordenação. Materiais inorgânicos de interesse industrial. Purificação e Identificação de Compostos Inorgânicos. Síntese de sais e obtenção de Compostos de Alumínio.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Coordination Compounds. Inorganic materials of industrial interest. Purification and Identification of Inorganic Compounds. Synthesis: Simple Salt, Double Salt and Complex Salt. Preparation of Aluminum Compounds.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Compostos de Coordenação: Estrutura, ligações, reações e aplicações. Exemplos e aplicações de materiais inorgânicos de interesse industrial. Sínteses: Sal Simples, Sal Duplo e Sal Complexo. Preparação de Compostos de Alumínio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Coordination Compounds: Structure, bonds, reactions and applications. Examples and applications of industrial interest inorganic materials. Syntheses: Simple Salt, Double Salt and Complex Salt. Preparation of Aluminum Compounds.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>P1 normal e P2 peso 2</t>
+    <t>Serão oferecidas aulas expositivas e práticas.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A média aritmética da prova P1 e P2 gera a nota final (NF)</t>
+    <t>Serão aplicadas duas provas escritas. Trabalhos em sala de aula, seminários e relatórios, poderão, a critério do docente, ser considerados como parte da nota da prova escrita.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Será fornecida uma aula na primeira semana seguida de uma prova escrita, na segunda semana a nota final recuperada será a média aritmética da NF com a da prova escrita.</t>
+    <t>Será realizada uma prova escrita envolvendo o conteúdo do semestre todo.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1) Quagliano, J.V. e Vallarino,L M 3 edição, Química- editora Guanabara Koogenn S.A. 1973. 
-2) -Lee, J. D., tradução Química Inorgânica não tão concisa da 5ª edição inglesa. Editora Edgard Blucher Ltda. SP-2001.
-3), Shriver, D. e Atkins, P. Química Inorgânica tradução da 4ª edição. Editora Bookman,Porto Alegre-RS, 2008.</t>
+    <t>CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010.BROWN, T.L. ET al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007.BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos, 1981.LEE, J. D., tradução Química Inorgânica não tão concisa da 5ª edição inglesa. Editora Edgard Blucher Ltda. SP-2001.SHRIVER, D. e ATKINS, P. Química Inorgânica tradução da 4ª edição. Editora Bookman,Porto Alegre-RS, 2008.QUAGLIANO, J.V; VALLARINO, L.M. Química - Ed. Guanabara Koogan S.A. - Rio de Janeiro - 3ª ed., 1973.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -612,112 +615,130 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4055.xlsx
+++ b/docs/assets/disciplinas/LOQ4055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos alunos conceitos fundamentais para compreensão da Química Inorgânica por meio da experimentação, desenvolvendo a capacidade de realizarem práticas no laboratório que estimulem o seu pensamento científico. Descrever e interpretar as propriedades dos elementos e de seus compostos, principalmente daqueles de caráter inorgânico com interesse industrial.</t>
+    <t>5840705 - Maria Lúcia Caetano Pinto da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840705 - Maria Lúcia Caetano Pinto da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Compostos de Coordenação. Materiais inorgânicos de interesse industrial. Purificação e Identificação de Compostos Inorgânicos. Síntese de sais e obtenção de Compostos de Alumínio.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Compostos de Coordenação: Estrutura, ligações, reações e aplicações. Exemplos e aplicações de materiais inorgânicos de interesse industrial. Sínteses: Sal Simples, Sal Duplo e Sal Complexo. Preparação de Compostos de Alumínio.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Serão oferecidas aulas expositivas e práticas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas provas escritas. Trabalhos em sala de aula, seminários e relatórios, poderão, a critério do docente, ser considerados como parte da nota da prova escrita.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Será realizada uma prova escrita envolvendo o conteúdo do semestre todo.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010.BROWN, T.L. ET al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007.BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos, 1981.LEE, J. D., tradução Química Inorgânica não tão concisa da 5ª edição inglesa. Editora Edgard Blucher Ltda. SP-2001.SHRIVER, D. e ATKINS, P. Química Inorgânica tradução da 4ª edição. Editora Bookman,Porto Alegre-RS, 2008.QUAGLIANO, J.V; VALLARINO, L.M. Química - Ed. Guanabara Koogan S.A. - Rio de Janeiro - 3ª ed., 1973.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4055.xlsx
+++ b/docs/assets/disciplinas/LOQ4055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer aos alunos conceitos fundamentais para compreensão da Química Inorgânica por meio da experimentação, desenvolvendo a capacidade de realizarem práticas no laboratório que estimulem o seu pensamento científico. Descrever e interpretar as propriedades dos elementos e de seus compostos, principalmente daqueles de caráter inorgânico com interesse industrial.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the students with fundamental concepts for understanding Inorganic Chemistry by means of experimentation, developing the ability to carry out practices in the laboratory which stimulate their scientific thinking. Describe and interpret the properties of the elements and their compounds, especially those of an inorganic feature with industrial interest.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840705 - Maria Lúcia Caetano Pinto da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the students with fundamental concepts for understanding Inorganic Chemistry by means of experimentation, developing the ability to carry out practices in the laboratory which stimulate their scientific thinking. Describe and interpret the properties of the elements and their compounds, especially those of an inorganic feature with industrial interest.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Compostos de Coordenação. Materiais inorgânicos de interesse industrial. Purificação e Identificação de Compostos Inorgânicos. Síntese de sais e obtenção de Compostos de Alumínio.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Compostos de Coordenação: Estrutura, ligações, reações e aplicações. Exemplos e aplicações de materiais inorgânicos de interesse industrial. Sínteses: Sal Simples, Sal Duplo e Sal Complexo. Preparação de Compostos de Alumínio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Serão oferecidas aulas expositivas e práticas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão oferecidas aulas expositivas e práticas.</t>
+    <t>Serão aplicadas duas provas escritas. Trabalhos em sala de aula, seminários e relatórios, poderão, a critério do docente, ser considerados como parte da nota da prova escrita.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas provas escritas. Trabalhos em sala de aula, seminários e relatórios, poderão, a critério do docente, ser considerados como parte da nota da prova escrita.</t>
+    <t>Será realizada uma prova escrita envolvendo o conteúdo do semestre todo.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Será realizada uma prova escrita envolvendo o conteúdo do semestre todo.</t>
+    <t>CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010.BROWN, T.L. ET al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007.BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos, 1981.LEE, J. D., tradução Química Inorgânica não tão concisa da 5ª edição inglesa. Editora Edgard Blucher Ltda. SP-2001.SHRIVER, D. e ATKINS, P. Química Inorgânica tradução da 4ª edição. Editora Bookman,Porto Alegre-RS, 2008.QUAGLIANO, J.V; VALLARINO, L.M. Química - Ed. Guanabara Koogan S.A. - Rio de Janeiro - 3ª ed., 1973.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
